--- a/scRNAseq_Markers_Human_Brain.xlsx
+++ b/scRNAseq_Markers_Human_Brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mctools-my.sharepoint.com/personal/bembenek_brianna_mayo_edu/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A59149-AF9F-46D9-8827-A289753694CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F9A59149-AF9F-46D9-8827-A289753694CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAECEB1-47B1-4689-A665-9B152E9A91AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7E0B4AB-71B4-4A15-80E7-0C729178DF02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Brain</t>
   </si>
@@ -141,15 +141,6 @@
   </si>
   <si>
     <t>Neuroepithelial</t>
-  </si>
-  <si>
-    <t>Non myelinating Schwann cells</t>
-  </si>
-  <si>
-    <t>SOX10,GAP43,NCAM1,NGFR</t>
-  </si>
-  <si>
-    <t>Non myelinating Schwann</t>
   </si>
   <si>
     <t>Oligodendrocyte precursor cells</t>
@@ -575,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1757B1FE-B360-4342-BA55-6B0BE8047248}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,19 +579,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -840,7 +831,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -848,14 +839,14 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +861,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,29 +869,14 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
